--- a/Docs/v_line/v_line_memory_map.xlsx
+++ b/Docs/v_line/v_line_memory_map.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
+  <si>
+    <t/>
+  </si>
   <si>
     <t>C1</t>
   </si>
@@ -162,7 +165,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +176,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -190,7 +199,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -217,18 +233,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -547,409 +566,411 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="3.1478571428571427" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="3.1478571428571427" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="K6" s="5"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>

--- a/Docs/v_line/v_line_memory_map.xlsx
+++ b/Docs/v_line/v_line_memory_map.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A.school\Delft\Y2\EPO3\DOOMIC\DOOMic\Docs\v_line\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051B86C1-8EE8-4917-98DB-D6BF4EE46D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="12105" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Blad1"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="52">
   <si>
     <t>C1</t>
   </si>
@@ -158,13 +161,27 @@
   </si>
   <si>
     <t>y_v</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>top_adr</t>
+  </si>
+  <si>
+    <t>bot_adr</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>curr_addr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,13 +197,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,11 +212,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -229,42 +252,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -275,10 +351,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -316,71 +392,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -408,7 +484,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -431,11 +507,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -444,13 +520,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -460,7 +536,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -469,7 +545,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -478,7 +554,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -486,10 +562,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -554,437 +630,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="topRight" topLeftCell="B1" ySplit="0" xSplit="1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U12" activeCellId="1" sqref="V6 U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="3.1478571428571427" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="3.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="4" t="s">
+    <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4" t="s">
+    <row r="4" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="4" t="s">
+    <row r="5" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T5" s="4" t="s">
+    <row r="6" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="M6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
-      <c r="A6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="4" t="s">
+    <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
-      <c r="A7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
+      <c r="U8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Docs/v_line/v_line_memory_map.xlsx
+++ b/Docs/v_line/v_line_memory_map.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A.school\Delft\Y2\EPO3\DOOMIC\DOOMic\Docs\v_line\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051B86C1-8EE8-4917-98DB-D6BF4EE46D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="12105" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Blad1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -85,6 +79,9 @@
     <t>C21</t>
   </si>
   <si>
+    <t>C22</t>
+  </si>
+  <si>
     <t>B0</t>
   </si>
   <si>
@@ -163,25 +160,23 @@
     <t>y_v</t>
   </si>
   <si>
+    <t>top_adr</t>
+  </si>
+  <si>
+    <t>curr_addr</t>
+  </si>
+  <si>
     <t>B6</t>
   </si>
   <si>
-    <t>top_adr</t>
-  </si>
-  <si>
     <t>bot_adr</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>curr_addr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,13 +192,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,13 +207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFffff00"/>
       </patternFill>
     </fill>
   </fills>
@@ -254,16 +243,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -271,26 +271,15 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -298,49 +287,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -351,10 +343,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -392,71 +384,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,7 +476,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -507,11 +499,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -520,13 +512,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -536,7 +528,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -545,7 +537,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -554,7 +546,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -562,10 +554,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -630,27 +622,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U12" activeCellId="1" sqref="V6 U12"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <pane state="frozen" activePane="topRight" topLeftCell="B1" ySplit="0" xSplit="1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" style="11" width="3.1478571428571427" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="12" width="13.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -706,373 +715,419 @@
       <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="M6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="W7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="V8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="W8" s="12" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W8" s="7" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Docs/v_line/v_line_memory_map.xlsx
+++ b/Docs/v_line/v_line_memory_map.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A.school\Delft\Y2\EPO3\DOOMIC\DOOMic\Docs\v_line\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC7CD9C-A5CD-4120-B944-34FE5E00B528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Blad1"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="55">
   <si>
     <t>C1</t>
   </si>
@@ -160,24 +166,32 @@
     <t>y_v</t>
   </si>
   <si>
-    <t>top_adr</t>
-  </si>
-  <si>
-    <t>curr_addr</t>
-  </si>
-  <si>
     <t>B6</t>
   </si>
   <si>
-    <t>bot_adr</t>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>bot_adr (16/6)</t>
+  </si>
+  <si>
+    <t>top_adr (16/6)</t>
+  </si>
+  <si>
+    <t>curr_addr (16/6)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +211,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -207,7 +227,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -272,7 +292,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -287,52 +307,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -343,10 +366,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -384,71 +407,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -476,7 +499,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -499,11 +522,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -512,13 +535,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -528,7 +551,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -537,7 +560,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -546,7 +569,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -554,10 +577,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -622,44 +645,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="topRight" topLeftCell="B1" ySplit="0" xSplit="1"/>
+    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="3.1478571428571427" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="12" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="3.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" customWidth="1"/>
+    <col min="24" max="24" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -728,13 +733,11 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row r="2" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -746,7 +749,7 @@
       <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -779,32 +782,28 @@
       <c r="R2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" s="7" t="s">
+      <c r="U2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -840,54 +839,33 @@
       <c r="R3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="7" t="s">
+      <c r="U3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row r="4" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -899,67 +877,45 @@
       <c r="N4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="5" t="s">
         <v>33</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="W4" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row r="5" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -971,35 +927,30 @@
       <c r="O5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="V5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="W5" s="7" t="s">
+      <c r="W5" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+    <row r="6" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1018,11 +969,10 @@
         <v>41</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="4" t="s">
         <v>43</v>
       </c>
       <c r="O6" s="2" t="s">
@@ -1034,32 +984,27 @@
       <c r="Q6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="U6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="W6" s="7" t="s">
+      <c r="W6" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row r="7" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1077,57 +1022,174 @@
       <c r="K7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="9" t="s">
+      <c r="V7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>49</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="10" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X13" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/v_line/v_line_memory_map.xlsx
+++ b/Docs/v_line/v_line_memory_map.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A.school\Delft\Y2\EPO3\DOOMIC\DOOMic\Docs\v_line\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC7CD9C-A5CD-4120-B944-34FE5E00B528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Blad1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -106,91 +100,92 @@
     <t>B2</t>
   </si>
   <si>
+    <t>neg(x_p)</t>
+  </si>
+  <si>
+    <t>dX</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>daK</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>neg(y_p)</t>
+  </si>
+  <si>
+    <t>dY</t>
+  </si>
+  <si>
+    <t>h/2</t>
+  </si>
+  <si>
+    <t>b_top</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>x_v</t>
+  </si>
+  <si>
+    <t>_dysina</t>
+  </si>
+  <si>
+    <t>Z (1/Z act)</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>b_bot</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>y_v</t>
+  </si>
+  <si>
+    <t>top_adr (16/6)</t>
+  </si>
+  <si>
+    <t>curr_addr (16/6)</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>bot_adr (16/6)</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
     <t>X_p</t>
   </si>
   <si>
-    <t>neg(x_p)</t>
-  </si>
-  <si>
-    <t>dX</t>
-  </si>
-  <si>
-    <t>da</t>
-  </si>
-  <si>
-    <t>daK</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>B3</t>
+    <t>B8</t>
   </si>
   <si>
     <t>Y_p</t>
-  </si>
-  <si>
-    <t>neg(y_p)</t>
-  </si>
-  <si>
-    <t>dY</t>
-  </si>
-  <si>
-    <t>h/2</t>
-  </si>
-  <si>
-    <t>b_top</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>x_v</t>
-  </si>
-  <si>
-    <t>_dysina</t>
-  </si>
-  <si>
-    <t>Z (1/Z act)</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>b_bot</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>y_v</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>bot_adr (16/6)</t>
-  </si>
-  <si>
-    <t>top_adr (16/6)</t>
-  </si>
-  <si>
-    <t>curr_addr (16/6)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,9 +208,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFCE9178"/>
+      <color rgb="FFce9178"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -227,7 +222,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFffff00"/>
       </patternFill>
     </fill>
   </fills>
@@ -292,7 +287,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -306,56 +301,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -366,10 +355,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -407,71 +396,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,7 +488,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -522,11 +511,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -535,13 +524,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -551,7 +540,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -560,7 +549,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -569,7 +558,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -577,10 +566,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -645,26 +634,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W6" sqref="W6"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <pane state="frozen" activePane="topRight" topLeftCell="B1" ySplit="0" xSplit="1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" customWidth="1"/>
-    <col min="24" max="24" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" style="11" width="3.1478571428571427" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="11" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="11" width="26.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -732,12 +740,15 @@
       <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="X1" s="4"/>
     </row>
-    <row r="2" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -749,7 +760,7 @@
       <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -782,28 +793,33 @@
       <c r="R2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="U2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -839,357 +855,494 @@
       <c r="R3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="U3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="M4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" s="4"/>
     </row>
-    <row r="5" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="T5" s="4" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="F6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="G6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="I6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" s="4"/>
     </row>
-    <row r="6" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="M6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" s="7" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="I7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="J7" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="K7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X7" s="4"/>
     </row>
-    <row r="7" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V7" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X8" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X9" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+      <c r="A10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="W7" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X10" s="4"/>
     </row>
-    <row r="8" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>52</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>28</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="X13" s="11"/>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/v_line/v_line_memory_map.xlsx
+++ b/Docs/v_line/v_line_memory_map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="54">
   <si>
     <t>C1</t>
   </si>
@@ -100,12 +100,69 @@
     <t>B2</t>
   </si>
   <si>
-    <t>neg(x_p)</t>
+    <t>X_p</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>Y_p</t>
+  </si>
+  <si>
+    <t>Y_P</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>x_v</t>
+  </si>
+  <si>
+    <t>dysina</t>
+  </si>
+  <si>
+    <t>Z (1/Z act)</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>b_bot</t>
+  </si>
+  <si>
+    <t>bot_adr (16/6)</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>y_v</t>
+  </si>
+  <si>
+    <t>dY</t>
+  </si>
+  <si>
+    <t>h/2</t>
+  </si>
+  <si>
+    <t>b_top</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>alpha</t>
   </si>
   <si>
     <t>dX</t>
   </si>
   <si>
+    <t>dxsina</t>
+  </si>
+  <si>
     <t>da</t>
   </si>
   <si>
@@ -115,70 +172,10 @@
     <t>a</t>
   </si>
   <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>neg(y_p)</t>
-  </si>
-  <si>
-    <t>dY</t>
-  </si>
-  <si>
-    <t>h/2</t>
-  </si>
-  <si>
-    <t>b_top</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>x_v</t>
-  </si>
-  <si>
-    <t>_dysina</t>
-  </si>
-  <si>
-    <t>Z (1/Z act)</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>b_bot</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>y_v</t>
-  </si>
-  <si>
     <t>top_adr (16/6)</t>
   </si>
   <si>
     <t>curr_addr (16/6)</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>bot_adr (16/6)</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>X_p</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>Y_p</t>
   </si>
 </sst>
 </file>
@@ -301,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -309,11 +306,14 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -321,11 +321,14 @@
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -335,6 +338,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,7 +644,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="topRight" topLeftCell="B1" ySplit="0" xSplit="1"/>
@@ -646,30 +652,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="3.1478571428571427" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="11" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="11" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="3.1478571428571427" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="14" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="14" width="26.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -713,42 +721,44 @@
       <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="4"/>
+      <c r="W1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="4"/>
+      <c r="Z1" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -760,7 +770,7 @@
       <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -781,9 +791,7 @@
       <c r="N2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="O2" s="3"/>
       <c r="P2" s="2" t="s">
         <v>24</v>
       </c>
@@ -793,33 +801,37 @@
       <c r="R2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="S2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="V2" s="2"/>
       <c r="W2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="4"/>
+      <c r="X2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -843,9 +855,7 @@
       <c r="N3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="O3" s="3"/>
       <c r="P3" s="2" t="s">
         <v>26</v>
       </c>
@@ -855,492 +865,514 @@
       <c r="R3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" s="2" t="s">
+      <c r="S3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="V3" s="2"/>
       <c r="W3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="4"/>
+      <c r="X3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5" t="s">
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>32</v>
+      <c r="P4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="V4" s="2"/>
       <c r="W4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X4" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="V5" s="2"/>
       <c r="W5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X5" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5" t="s">
+      <c r="U6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X6" s="4"/>
+      <c r="Z6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5" t="s">
+      <c r="V7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z7" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+      <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="5" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="H8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="X7" s="4"/>
+      <c r="L8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X8" s="4"/>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
-      <c r="A9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
-      <c r="A10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X10" s="4"/>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="10"/>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/v_line/v_line_memory_map.xlsx
+++ b/Docs/v_line/v_line_memory_map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="60">
   <si>
     <t>C1</t>
   </si>
@@ -103,79 +103,97 @@
     <t>X_p</t>
   </si>
   <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>Y_p</t>
+  </si>
+  <si>
+    <t>Y_P</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>x_v</t>
+  </si>
+  <si>
+    <t>dysina</t>
+  </si>
+  <si>
+    <t>Z (1/Z act)</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>b_bot</t>
+  </si>
+  <si>
+    <t>bot_adr (16/6)</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>y_v</t>
+  </si>
+  <si>
+    <t>dY</t>
+  </si>
+  <si>
+    <t>h/2</t>
+  </si>
+  <si>
+    <t>b_top</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>dX</t>
+  </si>
+  <si>
+    <t>dxsina</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>daK</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>top_adr (16/6)</t>
+  </si>
+  <si>
+    <t>curr_addr (16/6)</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>Y_p</t>
-  </si>
-  <si>
-    <t>Y_P</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>x_v</t>
-  </si>
-  <si>
-    <t>dysina</t>
-  </si>
-  <si>
-    <t>Z (1/Z act)</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>b_bot</t>
-  </si>
-  <si>
-    <t>bot_adr (16/6)</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>y_v</t>
-  </si>
-  <si>
-    <t>dY</t>
-  </si>
-  <si>
-    <t>h/2</t>
-  </si>
-  <si>
-    <t>b_top</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>dX</t>
-  </si>
-  <si>
-    <t>dxsina</t>
-  </si>
-  <si>
-    <t>da</t>
-  </si>
-  <si>
-    <t>daK</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>top_adr (16/6)</t>
-  </si>
-  <si>
-    <t>curr_addr (16/6)</t>
+    <t>dy sina</t>
+  </si>
+  <si>
+    <t>1/z</t>
+  </si>
+  <si>
+    <t>dy</t>
+  </si>
+  <si>
+    <t>dy cos a</t>
+  </si>
+  <si>
+    <t>-dycos a</t>
+  </si>
+  <si>
+    <t>dx</t>
   </si>
 </sst>
 </file>
@@ -298,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -312,7 +330,7 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -321,17 +339,20 @@
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -644,7 +665,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="topRight" topLeftCell="B1" ySplit="0" xSplit="1"/>
@@ -652,32 +673,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="3.1478571428571427" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="14" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="14" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="3.1478571428571427" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="15" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="15" width="26.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -929,9 +950,7 @@
       <c r="N4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="O4" s="3"/>
       <c r="P4" s="2" t="s">
         <v>28</v>
       </c>
@@ -964,215 +983,209 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="P5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="10" t="s">
+      <c r="W6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="Z6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="O7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="V7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="W7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>29</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
       <c r="Z7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1180,57 +1193,57 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="Q8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="R8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="S8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="S8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X8" s="5" t="s">
+      <c r="Y8" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="Z8" s="5"/>
     </row>
@@ -1257,7 +1270,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="3"/>
+      <c r="W9" s="9"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
@@ -1273,7 +1286,9 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="5"/>
+      <c r="K10" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1285,13 +1300,15 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="3"/>
+      <c r="W10" s="9"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3"/>
+      <c r="A11" s="11">
+        <v>4</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1301,11 +1318,19 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="5"/>
+      <c r="K11" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -1313,13 +1338,15 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="3"/>
+      <c r="W11" s="9"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="3"/>
+      <c r="A12" s="11">
+        <v>5</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1329,25 +1356,35 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="P12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="11"/>
+      <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
-      <c r="A13" s="3"/>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="11">
+        <v>6</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1357,22 +1394,86 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="P13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="12"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
